--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msalharbi/Desktop/telegram_bot_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5580B5-7010-2443-9D12-4829B63BF307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A4C413-8D16-814B-BB54-581F1E34A4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-960" windowWidth="25600" windowHeight="15500" xr2:uid="{1367B26C-470D-C345-A223-B9B48EAF371A}"/>
+    <workbookView xWindow="4120" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{1367B26C-470D-C345-A223-B9B48EAF371A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Problem</t>
   </si>
@@ -44,29 +44,459 @@
     <t>Solution</t>
   </si>
   <si>
-    <t>Forgot password</t>
-  </si>
-  <si>
-    <t>Reset it from settings page</t>
-  </si>
-  <si>
-    <t>Cannot login</t>
-  </si>
-  <si>
-    <t>Check internet &amp; try again</t>
-  </si>
-  <si>
-    <t>Error 404</t>
-  </si>
-  <si>
-    <t>Page not found, contact support</t>
+    <t>لم أستطيع تسجيل الدخول إلى منصة تقني للتدرب الإلكتروني، ما الحل؟</t>
+  </si>
+  <si>
+    <t>مشكلة استعادة كلمة المرور أو الدخول للحساب في حال نسيان كلمة المرور أو وجود مشاكل فنية في نظام استعادة الحساب</t>
+  </si>
+  <si>
+    <t>عدم وجود المقرر المسجل للمتدرب في منصة تقني للتدرب الإلكتروني</t>
+  </si>
+  <si>
+    <t>لا تظهر لي الدورة التدريبية التي سجلت بها عن طريق منصة رايات</t>
+  </si>
+  <si>
+    <t>عند بدء الاختبار يظهر لي خطأ أو لا يفتح</t>
+  </si>
+  <si>
+    <t>فقدت الاتصال أثناء تأدية الاختبار</t>
+  </si>
+  <si>
+    <t>لا أستطيع رفع الواجب المطلوب ما الخطأ؟</t>
+  </si>
+  <si>
+    <t>كيف أُبلّغ عن مشكلة أو خلل في المنصة؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لماذا لا تصلني الإشعارات أو الرسائل من المنصة؟
+</t>
+  </si>
+  <si>
+    <t>عدم عمل الكاميرا لمسح الباركود (QR)</t>
+  </si>
+  <si>
+    <t>ما هي أبرز حقوق المتدرب؟</t>
+  </si>
+  <si>
+    <t>كيف يمكنني تسجيل مقرراتي في رايات؟</t>
+  </si>
+  <si>
+    <t>كيف يمكنني حذف مقرر خلال وقت التسجيل ؟</t>
+  </si>
+  <si>
+    <t>كيف يمكنني طلب خدمة طي القيد؟</t>
+  </si>
+  <si>
+    <t>كيف اقوم بطلب اعادة القيد</t>
+  </si>
+  <si>
+    <t>كيف اقوم بطلب انسحاب ؟</t>
+  </si>
+  <si>
+    <t>كيف اسوي تاجيل فصل وانا مستمر ؟</t>
+  </si>
+  <si>
+    <t>كيف اسوي تاجيل فصل وانا مستجد؟</t>
+  </si>
+  <si>
+    <t>كيف اقوم بالدخول الى صفحة الخدمة؟</t>
+  </si>
+  <si>
+    <t>كيف استعرض الجدول التدريبي الخاص بي ؟</t>
+  </si>
+  <si>
+    <t>كيف اقوم بعرض درجات فصل محدد؟</t>
+  </si>
+  <si>
+    <t>كيف اتمكن من معرفة الدرجة النهائيه وتوزيعها على المقررات ؟</t>
+  </si>
+  <si>
+    <t>كيف اقوم بتعريف البريد على جهاز iphone ؟</t>
+  </si>
+  <si>
+    <t>كيف اقوم بتعريف البريد على جهاز android ؟</t>
+  </si>
+  <si>
+    <t>كيف اقوم بتحديث كلمة المرور لحساب المتدرب ؟</t>
+  </si>
+  <si>
+    <t>كيف اقوم بتغيير لغة العرض الى العربيه من خلال متصفح google chrome ؟</t>
+  </si>
+  <si>
+    <t>اريد اضافة الايبان ماذا افعل ؟</t>
+  </si>
+  <si>
+    <t>كيف اقوم بتحديث الايبان الخاص بي</t>
+  </si>
+  <si>
+    <t>كيف اسجل في التحقق الثنائي ؟</t>
+  </si>
+  <si>
+    <t>ماذا سيحدث بعد تسجيل الدخول؟</t>
+  </si>
+  <si>
+    <t>ما هي الخطوات لإضافة الهاتف كوسيلة تحقق؟</t>
+  </si>
+  <si>
+    <t>ل يمكنني استخدام التطبيق بدلًا من الرسائل النصية؟</t>
+  </si>
+  <si>
+    <t>كيف أفعّل تطبيق Microsoft Authenticator؟</t>
+  </si>
+  <si>
+    <t>كيف أربط التطبيق بحسابي؟</t>
+  </si>
+  <si>
+    <t>بعد اكتمال الإعداد، كيف أسجل الدخول؟</t>
+  </si>
+  <si>
+    <t>ماذا أفعل إذا كان هاتفي مضاف مسبقًا؟</t>
+  </si>
+  <si>
+    <t>ماذا أفعل إذا لم أستطع استلام الرمز أو الاتصال؟</t>
+  </si>
+  <si>
+    <t>ما هو نظام الفصول التدريبية الثلاثة؟</t>
+  </si>
+  <si>
+    <t>لا أستطيع تسجيل الدخول إلى حسابي في منصات المؤسسة (تقني، رايات)، ما الحل؟</t>
+  </si>
+  <si>
+    <t>كيف أسجل مقرراتي التدريبية؟</t>
+  </si>
+  <si>
+    <t>: أريد حذف مقرر من جدولي، ما الخطوات؟</t>
+  </si>
+  <si>
+    <t>هل يمكنني طلب تأجيل التدريب؟</t>
+  </si>
+  <si>
+    <t>كيف يمكنني تحديث بياناتي الشخصية؟</t>
+  </si>
+  <si>
+    <t>نسيت كلمة المرور، كيف يمكنني استعادتها؟</t>
+  </si>
+  <si>
+    <t>هل أستطيع تغيير تخصصي بعد التسجيل؟</t>
+  </si>
+  <si>
+    <t>تأكّد من صحة اسم المستخدم وكلمة المرور. إذا استمرت المشكلة، جرّب تغيير المتصفح أو استخدم رابط (هل نسيت كلمة المرور) من رايات</t>
+  </si>
+  <si>
+    <t>استخدم رابط (هل نسيت كلمة المرور) من رايات</t>
+  </si>
+  <si>
+    <t>تحقق من أنك سجلت المقرر بشكل صحيح، أو تواصل مع المدرب للتأكد من تفعيلك داخل المقرر، بعض الأحيان يتأخر نزول المقرر في منصة تقني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحقق من تفعيل الاختبار في الوقت الصحيح. قد يتطلب الاختبار متصفحًا معينًا وتأكد ان لديك صلاحية الدخول.
+</t>
+  </si>
+  <si>
+    <t>إذا كانت المنصة تدعم الحفظ التلقائي يمكنك المتابعة. وإلا تواصل مع المدرب لإعادة التمكين</t>
+  </si>
+  <si>
+    <t>قد يكون أحد الأسباب التالية:
+تحقق من أن حجم الملف لا يتجاوز الحد المسموح
+انتهى مدة تسليم الواجب
+ليس لديك صلاحية الدخول للواجب</t>
+  </si>
+  <si>
+    <t>التواصل مع الدعم الفني في منصة رايات , التواصل مع الرقم الموحد في منصة رايات , التواصل عبر الإيميل</t>
+  </si>
+  <si>
+    <t>راجع إعدادات التنبيهات في حسابك، وتأكّد أن البريد الإلكتروني صحيح وغير مُصنّف كبريد مزعج</t>
+  </si>
+  <si>
+    <t>تحقق ان الباركود يعمل بشكل صحيح , تأكد ان الصلاحية مفعلة في جهاز مسح لرموز(QR)</t>
+  </si>
+  <si>
+    <t>من خلال موقع rayat.tvtc.gov.sa
+، اختر (المتدربون) ثم (التسجيل الذاتي للمتدربين) وبعدها (التسجيل في المقررات). قم بإدخال بيانات حسابك التدريبي واختيار الفصل الحالي، ثم أضف المقررات والشعب المطلوبة، واضغط على (تنفيذ) لتثبيت الجدول.</t>
+  </si>
+  <si>
+    <t>خطوات الحذف من صفحة التسجيل في المقررات:
+ابحث عن الشعبة المعنية:
+استخدم شريط التحريك أسفل يسار الصفحة للبحث عن الشعبة.
+اختيار الحذف:
+بعد إيجاد الشعبة المعنية، اختر "حذف" مقابل عبارة "مسجل".
+تثبيت الحذف:
+لتثبيت الحذف، اضغط مرتين على "تنفيذ" في أسفل يسار الصفحة.</t>
+  </si>
+  <si>
+    <t>شروط تقديم طلب طي القيد:
+تقديم الطلب لا يعني الموافقة:
+يجب الاستمرار في التدريب حتى تتم الموافقة على الطلب من قبل الكلية.
+إخلاء الطرف:
+يجب عمل إخلاء طرف حتى تتم الموافقة على طلب طي القيد.
+تقدير (ع) في السجل:
+يتم منح المتدرب تقدير (ع) في جميع المقررات المسجلة في الفصل الذي تقدم فيه بطلب طي القيد.
+توقف المكافأة:
+يتم توقف المكافأة بداية من تاريخ الموافقة على طلب طي القيد.
+إمكانية تقديم الطلب:
+يحق للمتدرب المستمر أو المنسحب تقديم طلب طي القيد.
+عدم تقديم الطلب في حالة تأجيل الفصل القادم:
+لا يمكن تقديم طلب طي القيد في حالة وجود سجل تأجيل لفصل قادم.
+الطلاب المبتعثون:
+لا يمكن تقديم طلب طي القيد للمتدرب المبتعث أو الموفد إلا بعد الحصول على موافقة خطية.
+عدد مرات طلب طي القيد:
+لا يسمح بتقديم أكثر من طلب طي قيد في نفس الفصل الدراسي في حالة وجود طلب قيد آخر تم قبوله أو رفضه.
+وجود طلب آخر قيد العمل عليه:
+لا يمكن تقديم طلب طي قيد في حالة وجود طلب قيد آخر جارٍ العمل عليه في نفس الفصل الدراسي إلا إذا تم إلغاؤه من قبل المتدرب.</t>
+  </si>
+  <si>
+    <t>شروط تقديم طلب إعادة القيد:
+تقديم الطلب لا يعني الموافقة:
+يجب الاستمرار في التدريب حتى تتم الموافقة على طلب إعادة القيد من خلال الكلية.
+شروط التقديم:
+يحق للمتدرب الذي تم طي قيده أو الذي له فصول أكاديمية قديمة تقديم طلب إعادة قيد.
+المكافأة التدريبية:
+يستحق المتدرب المعاد قيده المكافأة التدريبية ابتداءً من تاريخ الموافقة على طلب إعادة القيد، بشرط تحقيق شروط استحقاق المكافأة.
+الموعد المحدد للتقديم:
+يجب تقديم الطلب خلال ثلاثة فصول من تاريخ طي القيد.
+التقديم بعد ثلاثة فصول:
+إذا مر أكثر من ثلاثة فصول على طي القيد، لا يسمح بتقديم طلب إعادة القيد، ويمكن للمتدرب التقديم من جديد عبر بوابة القبول الموحد.
+إعادة القيد في نفس الفصل:
+لا يمكن إعادة القيد في نفس الفصل الذي تم طي القيد فيه.
+إعادة القيد أكثر من مرة:
+لا يسمح للمتدرب بإعادة القيد أكثر من مرة خلال الفترة التدريبية.
+الطلاب المبتعثون:
+لا يسمح للمتدرب المبتعث أو الموفد بتقديم طلب إعادة القيد إلا من خلال مراجعة الكلية.
+وجود طلب إعادة قيد آخر:
+لا يمكن تقديم طلب إعادة قيد في نفس الفصل الدراسي في حال وجود طلب آخر تمت معالجته (قبولًا أو رفضًا).</t>
+  </si>
+  <si>
+    <t>شروط تقديم طلب انسحاب: شروط تقديم طلب انسحاب:
+تقديم الطلب لا يعني الموافقة:
+يجب الاستمرار في التدريب حتى تتم الموافقة على طلب الانسحاب من خلال الكلية.
+الموعد النهائي لتقديم الطلب:
+يجب تقديم طلب الانسحاب في أقصى حد نهاية الأسبوع التاسع من الفصل التدريبي.
+وقف الخدمات:
+سيتم توقف جميع الخدمات المقدمة للمتدرب خلال فترة الانسحاب باستثناء سجله التدريبي.
+الطلاب الموفدون والمبتعثون:
+يجب إحضار موافقة خطية من جهة الإيفاد أو الابتعاث.
+شروط الانسحاب:
+يجب أن يكون المتدرب منتظمًا في التدريب حتى يتمكن من تقديم طلب الانسحاب.
+وجود طلب انسحاب آخر:
+لا يمكن تقديم طلب انسحاب إذا كان هناك طلب آخر قد تم اعتماده أو رفضه في نفس الفصل الدراسي.
+طلب انسحاب واحد فقط:
+يحق للمتدرب تقديم طلب انسحاب واحد فقط خلال فترة التدريب.</t>
+  </si>
+  <si>
+    <t>شروط تقديم طلب تأجيل فصل واحد للمستمرين:
+للمتدربين المستمرين:
+تقديم الطلب لا يعني الموافقة:
+يجب الاستمرار في التدريب حتى تتم الموافقة على طلب التأجيل.
+تقديم الطلب قبل بداية الفصل:
+يجب أن يتقدم المتدرب بطلب التأجيل قبل بدء الفصل التدريبي.
+وقف الخدمات:
+يتم وقف جميع الخدمات المقدمة للمتدرب باستثناء سجله التدريبي.
+التقديم للمبتعثين:
+لا يسمح للمتدرب المبتعث أو الموفد بتقديم طلب تأجيل.
+عدد مرات التقديم:
+يجوز للمتدرب تقديم طلب تأجيل مرة واحدة فقط خلال الفترة التدريبية.</t>
+  </si>
+  <si>
+    <t>شروط تقديم طلب تأجيل فصل واحد للمستجدين:
+يجب تقديم الطلب قبل بدء الفصل التدريبي.
+وقف الخدمات:
+يتم وقف جميع الخدمات المقدمة للمتدرب باستثناء سجله التدريبي مع توضيح حالته الفصلية.
+التقديم للمبتعثين:
+يشترط إحضار موافقة خطية من جهة الإيفاد أو الابتعاث.</t>
+  </si>
+  <si>
+    <t>خطوات الدخول إلى صفحة الخدمة "رايات":
+الدخول إلى الموقع:
+انتقل إلى صفحة "رايات"
+اختيار نافذة المتدربين:
+اختر "عرض جدول المتدرب".
+إدخال بيانات الحساب التدريبي:
+أدخل بيانات حسابك للتسجيل في النظام.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توضيح طريقة عرض الجدول التدريبي: 
+1. ملاحظة: في حال ظهرت خيارات الخدمة باللغة الإنجليزية، يمكن تغيير اللغة إلى العربية عن طريق تغيير لغة المتصفح المستخدم. 
+2. بعد إدخال بيانات حسابك التدريبي، ستظهر أمامك بيانات الجدول المسجل في الفصل المحدد في حقل "الفصل الدراسي". 
+3. بيانات الجدول ستظهر في الصفحة مقسمة إلى ثلاثة أقسام رئيسية: 
+- القسم الأعلى: يعرض قائمة بالمقررات المسجلة وبياناتها الأساسية. 
+- القسم السفلي – تبويب الجدول: يعرض مواعيد تدريب المقررات المسجلة حسب الأيام والأوقات في رسم توضيحي. 
+- القسم السفلي – تبويب تفاصيل الجدول: يعرض قائمة المقررات المسجلة مع توضيح رقم غرفة التدريب واسم المدرب لكل مقرر. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطوات عرض سجل الدرجات لفصل محدد: 
+1. ملاحظة: في حال ظهرت خيارات الخدمة باللغة الإنجليزية، يمكن تغيير اللغة إلى العربية عن طريق تغيير لغة المتصفح المستخدم. 
+2. بعد الدخول إلى صفحة الخدمة، من الأعلى اضغط على عبارة "اختر أحد الفصول الدراسية"، ثم اختر الفصل المعني من القائمة المنسدلة. 
+3. اضغط على عبارة "قم باختيار مرحلة مقرر"، ثم اختر المرحلة المطلوبة. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطوات معرفة الدرجة النهائية وتوزيع درجات المقرر: 
+1. بعد عرض سجل الدرجات، يمكن معرفة الدرجة النهائية للمقرر من خلال حقل "الدرجة النهائية". 
+2. لمعرفة تفاصيل توزيع الدرجات لمقرر معين، أمام سجل المقرر في عمود "الإجراء"، اضغط على "مكونات". 
+3. سيظهر لك سجل توزيع درجات المقرر، ويمكنك معرفة الدرجات من حقل "الدرجة". 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطوات تعريف البريد الإلكتروني على نظام تشغيل iPhone: 
+1. من الإعدادات، اختر "البريد". 
+2. في الصفحة التالية، اختر "إضافة حساب". 
+3. في الصفحة التالية، اختر "Microsoft Exchange". 
+4. في حقل "إرسال بريد"، أدخل عنوان البريد الإلكتروني حسب الآتي: 
+- عنوان البريد الإلكتروني للمتدربين والمتدربات: الرقم التدريبي@tvtc.edu.sa 
+- مثال: 439123456@tvtc.edu.sa 
+5. في حقل "الوصف"، أدخل الوصف الذي سيظهر للعنوان المُدخل. 
+6. بعد إدخال الحقول المطلوبة، اضغط "تسجيل الدخول". 
+7. في الصفحة التالية، أدخل الحقول التالية: 
+- اسم المستخدم: الرقم التدريبي. 
+- كلمة المرور: نفس كلمة المرور المستخدمة للدخول على الخدمات الذاتية لأنظمة المتدربين. 
+8. اضغط "تسجيل دخول"، ثم "متابعة". 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"خطوات تعريف البريد الإلكتروني على نظام تشغيل Android:
+1. من الإعدادات، اختر المستخدمون والحسابات.
+2. في الصفحة التالية، اختر إضافة حساب.
+3. في الصفحة التالية، اختر مؤسسة.
+4. في حقل البريد الإلكتروني، أدخل عنوان البريد الإلكتروني حسب الآتي:
+عنوان البريد الإلكتروني للمتدربين والمتدربات: الرقم التدريبي@tvtc.edu.sa
+مثال: 439123456@tvtc.edu.sa
+5. بعد ذلك، اضغط التالي.
+6. في الصفحة التالية، أدخل الحقول التالية:
+- اسم المستخدم: الرقم التدريبي.
+- كلمة المرور: نفس كلمة المرور المستخدمة للدخول على الخدمات الذاتية لأنظمة المتدربين.
+7. اضغط مراجعة الأذونات.
+8. اضغط قبول.
+9. اضغط تنشيط.
+10. اضغط تم." 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطوات الدخول إلى صفحة الخدمة http://rayat.tvtc.gov.sa: 
+1. انتقل إلى صفحة رايات عبر الرابط أعلاه. 
+2. من نافذة المتدربين، اختر "استعادة كلمة المرور للمتدربين". 
+3. في صفحة تغيير كلمة المرور، أدخل رقمك التدريبي، ورقم الهوية، والرمز الظاهر في الصورة، ثم اضغط "موافق". 
+4. ستظهر لك رسالة تفيد بأنه سيتم إرسال رسالة نصية إلى رقم جوالك المسجل تحتوي على رقم مرجعي، أدخله حتى تتمكن من إدخال كلمة المرور الجديدة، ثم اضغط "نعم" لتنفيذ ذلك. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطوات تغيير لغة الخدمة إلى اللغة العربية باستخدام متصفح Google Chrome: 
+1. من إحدى صفحات المتصفح Google Chrome، اضغط على أيقونة النقاط الثلاث في أعلى الزاوية كما هو موضح في الصورة، ثم اختر "Settings – الإعدادات". 
+2. اضغط على أيقونة المربع في الأعلى مقابل عبارة "Settings" لعرض قائمة الخيارات. 
+3. اختر "Advanced – متقدم"، ثم "Languages – اللغات". 
+4. أمام عبارة "Languages"، اضغط على أيقونة النقاط الثلاث لعرض قائمة اللغات المتاحة. 
+5. في حال عدم ظهور اللغة العربية في القائمة، اضغط على "Add Language – إضافة لغة" من أسفل القائمة، ثم اختر اللغة العربية لإضافتها. 
+6. لجعل الخدمة تظهر باللغة العربية، اضغط على أيقونة النقاط أمام اللغة العربية من القائمة، ثم اختر "Move to the top – الانتقال إلى الأعلى" حتى تصبح اللغة العربية في رأس القائمة. 
+7. أغلق المتصفح بالكامل، ثم افتح صفحة جديدة للدخول على صفحة الخدمة مرة أخرى. 
+</t>
+  </si>
+  <si>
+    <t>خطوات تقديم الطلب:
+1. بعد الدخول إلى صفحة خدمة الطلبات الإلكترونية، من حقل "الخدمة"، اختر طلب إضافة/تحديث آيبان متدرب، ثم اختر متابعة.
+2. ستظهر صفحة تتضمن الشروط والتعليمات التي يجب مراعاتها، اختر متابعة.
+3. في صفحة تقديم الطلب، قم بتعبئة الحقول التالية:
+البنك الحالي: اختر "لا توجد بيانات حساب سابق".
+البنك الجديد: اختر اسم البنك الذي تم فيه إنشاء رقم الآيبان.
+رقم الآيبان الجديد: أدخل رقم الآيبان الخاص بحسابك الشخصي.
+تأكيد رقم الآيبان: أدخل رقم الآيبان مرة أخرى للتأكيد.
+إقرار بصحة الآيبان: أقرّ بأن رقم الآيبان المُدخل صحيح ويخصني شخصيًا، وأتحمل مسؤولية أي خطأ أو اختلاف ناتج عن ذلك. في حال التحقق، اختر "نعم".
+إقرار بنشاط الحساب: أقرّ بأن الحساب نشط، وغير مجمّد أو مغلق أو خلافه. في حال التحقق، اختر "نعم".
+4. اضغط على حفظ لإرسال الطلب.
+5. في حال تم الاعتماد من قبل الوحدة التدريبية، ستتغير حالة الطلب من "جاري العمل عليه" إلى تم تنفيذ الطلب.</t>
+  </si>
+  <si>
+    <t>1. بعد الدخول إلى صفحة خدمة الطلبات الإلكترونية، ومن حقل الخدمة، اختر "طلب إضافة/تحديث آيبان متدرب"، ثم اضغط على "متابعة".
+2. ستظهر صفحة تتضمن الشروط والتعليمات التي يجب مراعاتها، اضغط على "متابعة".
+3. في صفحة تقديم الطلب، قم بتعبئة الحقول التالية:
+3.1 البنك الحالي: اختر اسم البنك الذي تم فيه إنشاء رقم الآيبان السابق.
+3.2 رقم الآيبان الحالي: أدخل رقم الآيبان السابق.
+3.3 البنك الجديد: اختر اسم البنك الذي تم فيه إنشاء رقم الآيبان الجديد.
+3.4 رقم الآيبان الجديد: أدخل رقم الآيبان الخاص بحسابك الشخصي.
+3.5 تأكيد رقم الآيبان: أدخل رقم الآيبان مرة أخرى للتأكيد.
+3.6 إقرار بصحة الآيبان:
+أقرّ بأن رقم الآيبان المُدخل صحيح ويخصني شخصيًا، وأتحمّل مسؤولية أي خطأ أو اختلاف ناتج عن ذلك.
+في حال التحقق، اختر "نعم".
+3.7 إقرار بنشاط الحساب:
+أقرّ بأن الحساب نشط، وغير مجمّد أو مغلق أو خلافه.
+في حال التحقق، اختر "نعم".
+4. اضغط على "حفظ" لتقديم الطلب.
+5. في حال تم الاعتماد من قبل الوحدة التدريبية، ستتغير حالة الطلب من "جاري العمل عليه" إلى "تم تنفيذ الطلب"</t>
+  </si>
+  <si>
+    <t>ابدأ بالدخول إلى الرابط التالي: https://aka.ms/mysecurityinfo، ثم سجّل الدخول باستخدام بريدك الإلكتروني الخاص بالمؤسسة 
+وكلمة المرور.</t>
+  </si>
+  <si>
+    <t>ستظهر لك صفحة معلومات الأمان التي تحتوي على الأساليب المستخدمة للتحقق من الهوية. من هنا، 
+يمكنك إضافة أو تعديل طرق المصادقة الثنائية.</t>
+  </si>
+  <si>
+    <t>1. اضغط على (+ إضافة أسلوب تسجيل الدخول).
+2. اختر الهاتف من القائمة. 
+3. أدخل رقم الجوال، ثم اختر طريقة التحقق المفضلة (رسالة نصية أو مكالمة هاتفية).
+4. أدخل الرمز الذي يصلك أو أجب على المكالمة لإكمال التحقق.
+5. ستظهر رسالة تؤكد نجاح إضافة الهاتف.</t>
+  </si>
+  <si>
+    <t>نعم، يمكنك تفعيل تطبيق Microsoft Authenticator ليكون وسيلة تحقق أساسية وآمنة.</t>
+  </si>
+  <si>
+    <t>1. في صفحة معلومات الأمان، اضغط مجددًا على (+ إضافة أسلوب تسجيل الدخول). 
+2.اختر تطبيق مصدق (Authenticator App) ثم اضغط إضافة.
+3.قم بتحميل تطبيق Microsoft Authenticator على هاتفك
+4. اضغط على التالي حتى تظهر شفرة QR لربط التطبيق بالحساب.</t>
+  </si>
+  <si>
+    <t>1. افتح تطبيق Microsoft Authenticator على الهاتف.
+2. اضغط على إضافة (+) ثم اختر حساب عمل أو مؤسسة تعليمية.
+3.ختر قراءة الشفرة السريعة (QR) لمسح الشفرة التي تظهر على شاشة المتصفح.
+4.بعد المسح، سيتم ربط الحساب تلقائيًا بالتطبيق.</t>
+  </si>
+  <si>
+    <t>يمكنك تسجيل الدخول إلى خدمات المؤسسة التي تتطلب المصادقة الثنائية باستخدام أحد الخيارين:
+إشعار التحقق من تطبيق Microsoft Authenticator.
+أو الرمز المرسل عبر رسالة نصية إلى هاتفك المسجل.</t>
+  </si>
+  <si>
+    <t>إذا كان رقم هاتفك مسجل مسبقًا في صفحة معلومات الأمان، يمكنك تخطي خطوة إضافة الهاتف
+والانتقال مباشرة إلى تسجيل تطبيق Microsoft Authenticator.</t>
+  </si>
+  <si>
+    <t>تأكد من أن رقم الهاتف المسجل صحيح ومحدث، أو جرّب استخدام تطبيق Authenticator كبديل لتلقي إشعارات التحقق.</t>
+  </si>
+  <si>
+    <t>هو نظام يهدف إلى رفع كفاءة التدريب وتسريع تخرج المتدربين من خلال توزيع العام التدريبي إلى ثلاثة فصول 
+بدلاً من فصلين.</t>
+  </si>
+  <si>
+    <t>يتيح فرص تسجيل أكثر، مرونة في الخطة التدريبية، واستفادة أكبر من الطاقة الاستيعابية للمؤسسة.</t>
+  </si>
+  <si>
+    <t>تأكد من كتابة اسم المستخدم وكلمة المرور بشكل صحيح. 
+إذا استمرت المشكلة، جرّب تغيير المتصفح أو استخدم رابط (هل نسيت كلمة المرور) من رايات.</t>
+  </si>
+  <si>
+    <t>من بوابة رايات، اختر التسجيل الذاتي للمتدربين ثم التسجيل في المقررات. بعد إدخال بياناتك، حدد الفصل الدراسي والمقررات المطلوبة واضغط تنفيذ لتثبيت التسجيل.</t>
+  </si>
+  <si>
+    <t>الدخول على رايات ومن صفحة التسجيل في المقررات، ابحث عن المقرر في قسم “الملخص”، واضغط حذف أمام الشعبة المطلوبة، ثم تنفيذ مرتين لتأكيد الحذف.</t>
+  </si>
+  <si>
+    <t>نعم، تقدم بطلب تأجيل من خلال خيار "طلب تأجيل" في صفحة رايات، وستتم مراجعته من قبل الإدارة.</t>
+  </si>
+  <si>
+    <t>قم بتسجيل الدخول إلى حسابك، ثم انتقل إلى "إعدادات الحساب" لتحديث بياناتك مثل رقم الجوال، البريد الإلكتروني، أو العنوان.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+نعم، لكن يجب أن يتم ذلك في الأسبوع الأول من الفصل وبموافقة الكلية، بشرط ألا تكون اجتزت أكثر من 50% من الخطة الدراسية.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +523,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,10 +549,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -122,8 +561,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04B6AF5-6321-714B-BA2E-2C780AD93AAC}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,70 +920,365 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="53" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="369" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="285" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="157" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="157" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="79" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="196" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="209" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="118" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="248" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="381" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="53" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="53" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1" display="https://aka.ms/mysecurityinfo" xr:uid="{A0E6AD89-FF58-ED46-ACDE-D67848D5A8DC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>